--- a/CASUAL/LA TICC/ZAFRA, REYNANTE.xlsx
+++ b/CASUAL/LA TICC/ZAFRA, REYNANTE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="108">
   <si>
     <t>PERIOD</t>
   </si>
@@ -339,6 +339,27 @@
   </si>
   <si>
     <t>UT(0-3-20)</t>
+  </si>
+  <si>
+    <t>UT(0-5-15)</t>
+  </si>
+  <si>
+    <t>UT(1-0-15)</t>
+  </si>
+  <si>
+    <t>UT(1-0-9)</t>
+  </si>
+  <si>
+    <t>UT(0-4-33)</t>
+  </si>
+  <si>
+    <t>UT(0-0-17)</t>
+  </si>
+  <si>
+    <t>UT(0-0-48)</t>
+  </si>
+  <si>
+    <t>UT(0-0-37)</t>
   </si>
 </sst>
 </file>
@@ -738,17 +759,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -758,6 +776,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1286,7 +1307,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K95" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K96" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1645,12 +1666,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K95"/>
+  <dimension ref="A2:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,14 +1701,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1698,16 +1719,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>40360</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1720,16 +1741,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1755,18 +1776,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1813,7 +1834,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>64.262</v>
+        <v>60.774999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2944,11 +2965,15 @@
       <c r="A65" s="38">
         <v>44621</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
-      <c r="D65" s="37"/>
+      <c r="D65" s="37">
+        <v>7.7000000000000013E-2</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
@@ -2964,11 +2989,15 @@
       <c r="A66" s="38">
         <v>44652</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="37"/>
+      <c r="D66" s="37">
+        <v>0.1</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -2984,11 +3013,15 @@
       <c r="A67" s="38">
         <v>44682</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="37"/>
+      <c r="D67" s="37">
+        <v>3.5000000000000017E-2</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -3004,11 +3037,15 @@
       <c r="A68" s="38">
         <v>44713</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
-      <c r="D68" s="37"/>
+      <c r="D68" s="37">
+        <v>0.56899999999999995</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
@@ -3044,11 +3081,15 @@
       <c r="A70" s="38">
         <v>44774</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="37"/>
+      <c r="D70" s="37">
+        <v>1.0189999999999999</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -3109,19 +3150,19 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="38">
-        <v>44835</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D73" s="37"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="37">
+        <v>1.0309999999999999</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H73" s="37"/>
       <c r="I73" s="9"/>
@@ -3130,102 +3171,104 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="37"/>
+      <c r="D74" s="37">
+        <v>0.65600000000000003</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H74" s="37">
-        <v>3</v>
-      </c>
+      <c r="H74" s="37"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+      <c r="A75" s="38">
+        <v>44866</v>
+      </c>
       <c r="B75" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="37">
-        <v>0.41699999999999998</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D75" s="37"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H75" s="37"/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H75" s="37">
+        <v>3</v>
+      </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="38">
-        <v>44896</v>
-      </c>
+      <c r="A76" s="38"/>
       <c r="B76" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C76" s="13"/>
       <c r="D76" s="37">
-        <v>4</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="37"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
+      <c r="A77" s="38">
+        <v>44896</v>
+      </c>
       <c r="B77" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="37"/>
+        <v>84</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D77" s="37">
+        <v>4</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="37">
-        <v>2</v>
-      </c>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H77" s="37"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
       <c r="B78" s="20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="37"/>
@@ -3236,12 +3279,12 @@
         <v/>
       </c>
       <c r="H78" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="45">
-        <v>44902</v>
+      <c r="K78" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3263,36 +3306,40 @@
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="45">
-        <v>44916</v>
+        <v>44902</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="20" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="37">
-        <v>7.1000000000000008E-2</v>
-      </c>
+      <c r="D80" s="37"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="37"/>
+      <c r="H80" s="37">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="45"/>
+      <c r="K80" s="45">
+        <v>44916</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81" s="20"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="37"/>
+      <c r="D81" s="37">
+        <v>7.1000000000000008E-2</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -3302,83 +3349,79 @@
       <c r="H81" s="37"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="45"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="38">
-        <v>44927</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A82" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="13"/>
       <c r="D82" s="37"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H82" s="37">
-        <v>1</v>
-      </c>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H82" s="37"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="45">
-        <v>44929</v>
-      </c>
+      <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
+      <c r="A83" s="38">
+        <v>44927</v>
+      </c>
       <c r="B83" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C83" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="37"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="45" t="s">
-        <v>88</v>
+      <c r="K83" s="45">
+        <v>44929</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="38">
-        <v>44958</v>
-      </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A84" s="38"/>
+      <c r="B84" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="13"/>
       <c r="D84" s="37"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H84" s="37"/>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="37">
+        <v>2</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="45" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
-        <v>44986</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B85" s="20"/>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
@@ -3392,15 +3435,15 @@
       <c r="H85" s="37"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="45">
-        <v>45016</v>
-      </c>
+      <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
-        <v>45017</v>
-      </c>
-      <c r="B86" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C86" s="13">
         <v>1.25</v>
       </c>
@@ -3414,58 +3457,58 @@
       <c r="H86" s="37"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="45">
+        <v>45016</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="39">
+      <c r="A87" s="38">
+        <v>45017</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D87" s="37"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H87" s="37"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="20"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="39">
         <v>45047</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B88" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D87" s="41"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H87" s="41"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="15" t="s">
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D88" s="41"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H88" s="41"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="15" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="38"/>
-      <c r="B88" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="37">
-        <v>1</v>
-      </c>
-      <c r="I88" s="9"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="45">
-        <v>45061</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="37"/>
@@ -3476,41 +3519,41 @@
         <v/>
       </c>
       <c r="H89" s="37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20" t="s">
-        <v>92</v>
+      <c r="K89" s="45">
+        <v>45061</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="38">
-        <v>45078</v>
-      </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A90" s="38"/>
+      <c r="B90" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="13"/>
       <c r="D90" s="37"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H90" s="37"/>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="37">
+        <v>3</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38">
-        <v>45108</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>95</v>
-      </c>
+        <v>45078</v>
+      </c>
+      <c r="B91" s="20"/>
       <c r="C91" s="13">
         <v>1.25</v>
       </c>
@@ -3521,20 +3564,18 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H91" s="37">
-        <v>5</v>
-      </c>
+      <c r="H91" s="37"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38">
-        <v>45139</v>
-      </c>
-      <c r="B92" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C92" s="13">
         <v>1.25</v>
       </c>
@@ -3545,18 +3586,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H92" s="37"/>
+      <c r="H92" s="37">
+        <v>5</v>
+      </c>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38">
-        <v>45170</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>52</v>
-      </c>
+        <v>45139</v>
+      </c>
+      <c r="B93" s="20"/>
       <c r="C93" s="13">
         <v>1.25</v>
       </c>
@@ -3567,68 +3610,90 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H93" s="37">
-        <v>2</v>
-      </c>
+      <c r="H93" s="37"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38">
-        <v>45200</v>
-      </c>
-      <c r="B94" s="15"/>
+        <v>45170</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C94" s="13">
         <v>1.25</v>
       </c>
-      <c r="D94" s="41"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="40">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H94" s="41"/>
-      <c r="I94" s="52"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="15"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H94" s="37">
+        <v>2</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
+        <v>45200</v>
+      </c>
+      <c r="B95" s="15"/>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D95" s="41"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="40">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H95" s="41"/>
+      <c r="I95" s="52"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="15"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="38">
         <v>45231</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D95" s="37"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H95" s="37"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D96" s="37"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H96" s="37"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3696,14 +3761,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3714,16 +3779,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>40360</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3736,14 +3801,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3769,18 +3834,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5626,15 +5691,13 @@
         <v>60.5</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>3</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G3" s="43">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.41699999999999998</v>
+        <v>7.7000000000000013E-2</v>
       </c>
       <c r="J3" s="50"/>
       <c r="K3" s="35">
